--- a/data/trans_orig/Q17F_D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.019949204463937</v>
+        <v>6.677820461653556</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.140423131738384</v>
+        <v>5.420491746296624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.478064185164615</v>
+        <v>4.56238603427991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18.7223523728428</v>
+        <v>18.74293387350786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.638698018292011</v>
+        <v>7.432053187550314</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.244758121045377</v>
+        <v>3.30668806751957</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.485450293057007</v>
+        <v>5.74940841748243</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.16790153160675</v>
+        <v>17.04198321906755</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.69114114216122</v>
+        <v>8.63700927728107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.898821247035774</v>
+        <v>4.916349395999926</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5.990296586682155</v>
+        <v>5.925914087978365</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>19.52709709603299</v>
+        <v>19.74856165087649</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.48857394118303</v>
+        <v>19.54473990641594</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.42649139921315</v>
+        <v>17.26052851646855</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.75097315124854</v>
+        <v>15.89365099558886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40.19109878846767</v>
+        <v>40.26132366236099</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>35.55560040540168</v>
+        <v>31.51320813905774</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.80483800912887</v>
+        <v>14.93359762345885</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.6993065900767</v>
+        <v>15.90984494850955</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>34.65234945566231</v>
+        <v>34.35600231770744</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>23.19642877447063</v>
+        <v>22.85195691939505</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13.39290216446178</v>
+        <v>13.07560816267347</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14.1743182309894</v>
+        <v>13.28899734990638</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>33.73088063221952</v>
+        <v>34.4925482745778</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.199019133177893</v>
+        <v>4.348162579901603</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.006531148851517</v>
+        <v>3.150629989352143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.345386679527493</v>
+        <v>4.093932049383485</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14.87937244069006</v>
+        <v>15.14899028721317</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>4.280970344533847</v>
+        <v>4.108647865029885</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.956115887758071</v>
+        <v>4.937738743145806</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>11.92713439476875</v>
+        <v>12.31703856006907</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>9.553876827847393</v>
+        <v>9.287937386003618</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.907665900556883</v>
+        <v>4.840062666999437</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4.90590984199655</v>
+        <v>5.124981139217788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.399298106115815</v>
+        <v>9.257189189803361</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>13.76246427427289</v>
+        <v>13.31378159092636</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.61612344324965</v>
+        <v>14.70535207626729</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.79865658876554</v>
+        <v>11.59245428734944</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.21314308491282</v>
+        <v>19.20892633417331</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40.49972798129124</v>
+        <v>39.8352583625822</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>11.48359818244668</v>
+        <v>10.88464163925139</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.25376638321826</v>
+        <v>29.04767205632202</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>60.38679692765415</v>
+        <v>63.02692549956934</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>18.97557424980892</v>
+        <v>17.57507877553814</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>10.67188792653063</v>
+        <v>10.49520904773535</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15.10299838947651</v>
+        <v>15.56806073675625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34.67492422686828</v>
+        <v>37.20691780214292</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>27.42190998476049</v>
+        <v>26.88841490869108</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>6.812300212922984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17.91628127347738</v>
+        <v>17.91628127347737</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>8.076173448067204</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.24962820640895</v>
+        <v>5.906182936426868</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.833542518372116</v>
+        <v>10.10045413587578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.951811763251201</v>
+        <v>3.955524472926276</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.21740222246681</v>
+        <v>10.48222497397754</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.259863549658114</v>
+        <v>4.253770224380996</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.037948913376231</v>
+        <v>3.823998828852347</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.690268631841876</v>
+        <v>5.885384854404824</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>15.91009835838273</v>
+        <v>15.4089974059991</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.076835947253079</v>
+        <v>6.095251532632934</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8.910900210799529</v>
+        <v>8.530893288614324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5.298771328003661</v>
+        <v>5.275780468901665</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>14.19935297136531</v>
+        <v>13.95793494241706</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.99941074533779</v>
+        <v>13.57755283742578</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.72786905160338</v>
+        <v>22.38819641731922</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.81738435953308</v>
+        <v>12.08963685167142</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34.53257703474685</v>
+        <v>38.16107609644006</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.89770143660115</v>
+        <v>16.33089859965875</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.18779126256064</v>
+        <v>13.10762607924833</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>22.85467637708681</v>
+        <v>23.77066022156805</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>54.87163662190505</v>
+        <v>56.90403761632705</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.37522772887856</v>
+        <v>12.03074912873871</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.08953013871583</v>
+        <v>16.68300140437678</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12.51261584353517</v>
+        <v>12.78402162714175</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>33.68747680165056</v>
+        <v>34.82093640952029</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.122836006228539</v>
+        <v>6.926025958314028</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.676060210392598</v>
+        <v>7.753638088248155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.792278308695931</v>
+        <v>8.930762698585184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13.44212230812097</v>
+        <v>13.74137967312076</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.364779815614031</v>
+        <v>7.223195411310367</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.484446657221153</v>
+        <v>6.566036421589347</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>10.55388584125252</v>
+        <v>10.34797531840913</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.34749703096778</v>
+        <v>17.78844884256622</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>8.027728249411886</v>
+        <v>8.021875987051645</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8.152417100772496</v>
+        <v>7.918321133247432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10.67032744027997</v>
+        <v>10.63861267500308</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.95029178318044</v>
+        <v>16.63841532175011</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.77406579360325</v>
+        <v>15.51814603655324</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.09973521379606</v>
+        <v>14.97337069007909</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.25181219571331</v>
+        <v>17.84810683215503</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24.41891193102218</v>
+        <v>25.49326192920251</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.81712698170307</v>
+        <v>19.71142377112006</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>15.08252891684691</v>
+        <v>14.4935592722883</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>33.66558005286466</v>
+        <v>34.08120353507284</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>30.62396621723018</v>
+        <v>31.22492610620068</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>14.99691177956353</v>
+        <v>15.1213008633998</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13.73154088234695</v>
+        <v>13.68371973905911</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21.84617647032613</v>
+        <v>22.3319079378976</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>25.73116778692558</v>
+        <v>26.43062599655202</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>12.76997482754788</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>27.55038491825233</v>
+        <v>27.55038491825232</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>11.44070821914722</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.296701547296086</v>
+        <v>6.456424710447089</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.82205416211314</v>
+        <v>3.928851106398583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.002071103376172</v>
+        <v>8.104321799948901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18.16306030077035</v>
+        <v>17.91960358002801</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.893289236422137</v>
+        <v>6.068391134582162</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.127896618503931</v>
+        <v>6.275459409792601</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.945135826561977</v>
+        <v>8.863675152981376</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>19.96110867521981</v>
+        <v>20.73994459102044</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.338813238403029</v>
+        <v>7.213900681002906</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.890580794936472</v>
+        <v>6.100921927485384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9.350080416057491</v>
+        <v>9.513384857725041</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>22.5105878492628</v>
+        <v>22.66296270208315</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>53.13448549959242</v>
+        <v>59.14349315915925</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.33087655701251</v>
+        <v>9.836175817581431</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.27864965497731</v>
+        <v>20.26058111279788</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>82.8676189920276</v>
+        <v>84.35174315298806</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.59635271700715</v>
+        <v>15.42704108879275</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.52900406560014</v>
+        <v>15.90061713469117</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>19.32201119302993</v>
+        <v>20.264552457517</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>38.69515683060855</v>
+        <v>40.39815519448196</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.46212351166675</v>
+        <v>19.65387020980948</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12.83867425532351</v>
+        <v>13.01719412982538</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16.92763438645109</v>
+        <v>17.08261158647699</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>45.62489131505689</v>
+        <v>45.91385582353686</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.942247924805171</v>
+        <v>1.929910043891843</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.845036366649305</v>
+        <v>2.583617419085871</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.378362872633546</v>
+        <v>2.576016123258809</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.921609096041424</v>
+        <v>5.647999242704005</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>5.410903055975398</v>
+        <v>5.279276670808366</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>8.399087539080289</v>
+        <v>8.771336661287574</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.980808087359664</v>
+        <v>8.172189195044091</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>14.6951074268829</v>
+        <v>14.3679128579103</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>5.203939861795265</v>
+        <v>5.35914407018857</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7.990471037238101</v>
+        <v>8.366557876900877</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7.987734809239369</v>
+        <v>7.97696597813326</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>14.64767726133962</v>
+        <v>15.03095699951215</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.793194181097467</v>
+        <v>8.105438755182673</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.86254287896023</v>
+        <v>13.43587422162686</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.25647419121496</v>
+        <v>12.45244895595438</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40.53669919932713</v>
+        <v>41.29398620808745</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>11.37847400664228</v>
+        <v>11.07453382753085</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>17.52028981462979</v>
+        <v>17.92656532486077</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>15.36185169156354</v>
+        <v>15.59842411233145</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>27.41237469395451</v>
+        <v>27.68492295427003</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>11.45028538240434</v>
+        <v>10.92824027637681</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16.36394755279081</v>
+        <v>16.37385276936516</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14.81204333327424</v>
+        <v>14.98218865138244</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>27.42880036692253</v>
+        <v>27.26301131244727</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.248716370176611</v>
+        <v>8.350490235953751</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.209886754194986</v>
+        <v>8.175881263314453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.051331729574056</v>
+        <v>8.03804591626683</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18.88122284312919</v>
+        <v>19.00499800080317</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.377968393914236</v>
+        <v>7.432221500075271</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.110010111065815</v>
+        <v>8.163798525592103</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>11.24921191617402</v>
+        <v>11.09173277868924</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>19.61850036021618</v>
+        <v>19.71833756352979</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.210559859045009</v>
+        <v>8.167948524254234</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8.57140875681309</v>
+        <v>8.750338701959523</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10.31492718198948</v>
+        <v>10.34406046719285</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>20.39649708552664</v>
+        <v>20.57158957344978</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.95472008391695</v>
+        <v>14.35883440633077</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.50516887014532</v>
+        <v>12.40035030720864</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.30005563633645</v>
+        <v>12.3326336462629</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30.74258228681825</v>
+        <v>30.94916423657313</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.55237456156902</v>
+        <v>11.40409678111371</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.11729638132077</v>
+        <v>12.21982129303986</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.56594891284313</v>
+        <v>17.68439078539908</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>26.31357086082646</v>
+        <v>26.51934179992676</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.61062015347858</v>
+        <v>11.45805550068492</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11.4927208468781</v>
+        <v>11.55639206354228</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14.66785987631197</v>
+        <v>14.52091611355092</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>26.93160694472109</v>
+        <v>27.02970227657456</v>
       </c>
     </row>
     <row r="25">
